--- a/target/test-classes/TestExcelData/TestData.xlsx
+++ b/target/test-classes/TestExcelData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\Shopfiy Selenium Framwork\src\test\resources\TestExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDDAD14-D836-43BF-A01B-8BFCA499EE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75941CF3-B047-4B83-87CE-4D9935771B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30645" yWindow="1830" windowWidth="21435" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,13 @@
     <t>codemanu.python@gmail.com</t>
   </si>
   <si>
-    <t>123QAAuto</t>
-  </si>
-  <si>
     <t>USERNAME</t>
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>MTIzUUFBdXRv</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,10 +385,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
